--- a/utils/config/ReferenceLists/Units_new_to_enmods.xlsx
+++ b/utils/config/ReferenceLists/Units_new_to_enmods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{084DB1A6-A742-4818-84CE-885A544A160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AFC8DC-3E55-42C6-AED0-741F3C361791}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{084DB1A6-A742-4818-84CE-885A544A160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52AC84A-2EFD-41E7-A8DA-36E44DDD0D8C}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9F870EFF-7876-4935-84AD-5E2652E31559}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{9F870EFF-7876-4935-84AD-5E2652E31559}"/>
   </bookViews>
   <sheets>
     <sheet name="NewUnits" sheetId="1" r:id="rId1"/>
@@ -532,11 +532,12 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/utils/config/ReferenceLists/Units_new_to_enmods.xlsx
+++ b/utils/config/ReferenceLists/Units_new_to_enmods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{084DB1A6-A742-4818-84CE-885A544A160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52AC84A-2EFD-41E7-A8DA-36E44DDD0D8C}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{084DB1A6-A742-4818-84CE-885A544A160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80CA6258-32CE-43E7-B63E-ADF4F3BB78B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{9F870EFF-7876-4935-84AD-5E2652E31559}"/>
   </bookViews>
@@ -529,19 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBE1A78-15EB-4B94-9166-E2F96D1A5749}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,12 +567,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>0.01</f>
         <v>0.01</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>1/10000</f>
         <v>1E-4</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>1/1000</f>
         <v>1E-3</v>
@@ -754,7 +754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
